--- a/apps/load_data/2014/10/PLMOVMAE.xlsx
+++ b/apps/load_data/2014/10/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\HHY1014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2014\HHY1014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72552E15-FE60-4FD4-A100-DF7EF238BEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC13732-803C-4138-969F-6810E1027304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$1</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$250</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -8036,7 +8037,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8044,6 +8045,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8401,8 +8403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:XFD393"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52484,13 +52486,13 @@
       <c r="P251" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q251" s="5">
+      <c r="Q251" s="7">
         <v>22036</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S251" s="5">
+      <c r="S251" s="7">
         <v>32112</v>
       </c>
       <c r="T251" s="4" t="s">
@@ -52689,13 +52691,13 @@
       <c r="P252" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q252" s="5">
+      <c r="Q252" s="7">
         <v>23084</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S252" s="5">
+      <c r="S252" s="7">
         <v>31391</v>
       </c>
       <c r="T252" s="4" t="s">
@@ -52889,13 +52891,13 @@
       <c r="P253" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q253" s="5">
+      <c r="Q253" s="7">
         <v>20306</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S253" s="5">
+      <c r="S253" s="7">
         <v>34881</v>
       </c>
       <c r="T253" s="4" t="s">
@@ -53094,13 +53096,13 @@
       <c r="P254" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q254" s="5">
+      <c r="Q254" s="7">
         <v>20332</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S254" s="5">
+      <c r="S254" s="7">
         <v>30651</v>
       </c>
       <c r="T254" s="4" t="s">
@@ -53294,13 +53296,13 @@
       <c r="P255" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q255" s="5">
+      <c r="Q255" s="7">
         <v>22441</v>
       </c>
       <c r="R255" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S255" s="5">
+      <c r="S255" s="7">
         <v>31747</v>
       </c>
       <c r="T255" s="4" t="s">
@@ -53494,13 +53496,13 @@
       <c r="P256" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q256" s="5">
+      <c r="Q256" s="7">
         <v>19912</v>
       </c>
       <c r="R256" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S256" s="5">
+      <c r="S256" s="7">
         <v>30682</v>
       </c>
       <c r="T256" s="4" t="s">
@@ -53694,13 +53696,13 @@
       <c r="P257" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q257" s="5">
+      <c r="Q257" s="7">
         <v>21670</v>
       </c>
       <c r="R257" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S257" s="5">
+      <c r="S257" s="7">
         <v>30651</v>
       </c>
       <c r="T257" s="4" t="s">
@@ -53897,13 +53899,13 @@
       <c r="P258" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q258" s="5">
+      <c r="Q258" s="7">
         <v>17726</v>
       </c>
       <c r="R258" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S258" s="5">
+      <c r="S258" s="7">
         <v>30271</v>
       </c>
       <c r="T258" s="4" t="s">
@@ -54093,13 +54095,13 @@
       <c r="P259" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q259" s="5">
+      <c r="Q259" s="7">
         <v>20367</v>
       </c>
       <c r="R259" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S259" s="5">
+      <c r="S259" s="7">
         <v>29556</v>
       </c>
       <c r="T259" s="4" t="s">
@@ -54293,13 +54295,13 @@
       <c r="P260" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q260" s="5">
+      <c r="Q260" s="7">
         <v>20503</v>
       </c>
       <c r="R260" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S260" s="5">
+      <c r="S260" s="7">
         <v>31747</v>
       </c>
       <c r="T260" s="4" t="s">
@@ -54498,13 +54500,13 @@
       <c r="P261" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q261" s="5">
+      <c r="Q261" s="7">
         <v>23601</v>
       </c>
       <c r="R261" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S261" s="5">
+      <c r="S261" s="7">
         <v>32104</v>
       </c>
       <c r="T261" s="4" t="s">
@@ -54698,13 +54700,13 @@
       <c r="P262" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q262" s="5">
+      <c r="Q262" s="7">
         <v>20134</v>
       </c>
       <c r="R262" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S262" s="5">
+      <c r="S262" s="7">
         <v>33813</v>
       </c>
       <c r="T262" s="4" t="s">
@@ -54904,13 +54906,13 @@
       <c r="P263" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q263" s="5">
+      <c r="Q263" s="7">
         <v>26843</v>
       </c>
       <c r="R263" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S263" s="5">
+      <c r="S263" s="7">
         <v>34699</v>
       </c>
       <c r="T263" s="4" t="s">
@@ -55109,13 +55111,13 @@
       <c r="P264" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q264" s="5">
+      <c r="Q264" s="7">
         <v>25405</v>
       </c>
       <c r="R264" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S264" s="5">
+      <c r="S264" s="7">
         <v>35049</v>
       </c>
       <c r="T264" s="4" t="s">
@@ -55317,13 +55319,13 @@
       <c r="P265" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q265" s="5">
+      <c r="Q265" s="7">
         <v>23416</v>
       </c>
       <c r="R265" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S265" s="5">
+      <c r="S265" s="7">
         <v>31044</v>
       </c>
       <c r="T265" s="4" t="s">
@@ -55522,13 +55524,13 @@
       <c r="P266" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q266" s="5">
+      <c r="Q266" s="7">
         <v>26100</v>
       </c>
       <c r="R266" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S266" s="5">
+      <c r="S266" s="7">
         <v>35089</v>
       </c>
       <c r="T266" s="4" t="s">
@@ -55732,13 +55734,13 @@
       <c r="P267" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q267" s="5">
+      <c r="Q267" s="7">
         <v>23296</v>
       </c>
       <c r="R267" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S267" s="5">
+      <c r="S267" s="7">
         <v>33055</v>
       </c>
       <c r="T267" s="4" t="s">
@@ -55935,13 +55937,13 @@
       <c r="P268" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q268" s="5">
+      <c r="Q268" s="7">
         <v>18523</v>
       </c>
       <c r="R268" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S268" s="5">
+      <c r="S268" s="7">
         <v>30941</v>
       </c>
       <c r="T268" s="4" t="s">
@@ -56140,13 +56142,13 @@
       <c r="P269" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q269" s="5">
+      <c r="Q269" s="7">
         <v>23894</v>
       </c>
       <c r="R269" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S269" s="5">
+      <c r="S269" s="7">
         <v>31382</v>
       </c>
       <c r="T269" s="4" t="s">
@@ -56340,13 +56342,13 @@
       <c r="P270" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q270" s="5">
+      <c r="Q270" s="7">
         <v>25520</v>
       </c>
       <c r="R270" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S270" s="5">
+      <c r="S270" s="7">
         <v>35049</v>
       </c>
       <c r="T270" s="4" t="s">
@@ -56545,13 +56547,13 @@
       <c r="P271" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q271" s="5">
+      <c r="Q271" s="7">
         <v>21898</v>
       </c>
       <c r="R271" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S271" s="5">
+      <c r="S271" s="7">
         <v>35669</v>
       </c>
       <c r="T271" s="4" t="s">
@@ -56750,13 +56752,13 @@
       <c r="P272" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q272" s="5">
+      <c r="Q272" s="7">
         <v>22181</v>
       </c>
       <c r="R272" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S272" s="5">
+      <c r="S272" s="7">
         <v>35049</v>
       </c>
       <c r="T272" s="4" t="s">
@@ -56955,13 +56957,13 @@
       <c r="P273" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q273" s="5">
+      <c r="Q273" s="7">
         <v>19897</v>
       </c>
       <c r="R273" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S273" s="5">
+      <c r="S273" s="7">
         <v>31017</v>
       </c>
       <c r="T273" s="4" t="s">
@@ -57162,13 +57164,13 @@
       <c r="P274" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q274" s="5">
+      <c r="Q274" s="7">
         <v>26243</v>
       </c>
       <c r="R274" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S274" s="5">
+      <c r="S274" s="7">
         <v>35268</v>
       </c>
       <c r="T274" s="4" t="s">
@@ -57364,13 +57366,13 @@
       <c r="P275" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q275" s="5">
+      <c r="Q275" s="7">
         <v>21410</v>
       </c>
       <c r="R275" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S275" s="5">
+      <c r="S275" s="7">
         <v>35521</v>
       </c>
       <c r="T275" s="4" t="s">
@@ -57570,13 +57572,13 @@
       <c r="P276" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q276" s="5">
+      <c r="Q276" s="7">
         <v>25159</v>
       </c>
       <c r="R276" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S276" s="5">
+      <c r="S276" s="7">
         <v>40664</v>
       </c>
       <c r="T276" s="4" t="s">
@@ -57768,13 +57770,13 @@
       <c r="P277" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q277" s="5">
+      <c r="Q277" s="7">
         <v>24913</v>
       </c>
       <c r="R277" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S277" s="5">
+      <c r="S277" s="7">
         <v>40664</v>
       </c>
       <c r="T277" s="4" t="s">
@@ -57966,13 +57968,13 @@
       <c r="P278" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q278" s="5">
+      <c r="Q278" s="7">
         <v>25502</v>
       </c>
       <c r="R278" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S278" s="5">
+      <c r="S278" s="7">
         <v>40664</v>
       </c>
       <c r="T278" s="4" t="s">
@@ -58166,13 +58168,13 @@
       <c r="P279" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q279" s="5">
+      <c r="Q279" s="7">
         <v>26036</v>
       </c>
       <c r="R279" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S279" s="5">
+      <c r="S279" s="7">
         <v>40664</v>
       </c>
       <c r="T279" s="4" t="s">
@@ -58364,13 +58366,13 @@
       <c r="P280" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q280" s="5">
+      <c r="Q280" s="7">
         <v>27451</v>
       </c>
       <c r="R280" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S280" s="5">
+      <c r="S280" s="7">
         <v>40664</v>
       </c>
       <c r="T280" s="4" t="s">
@@ -58564,13 +58566,13 @@
       <c r="P281" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q281" s="5">
+      <c r="Q281" s="7">
         <v>28044</v>
       </c>
       <c r="R281" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S281" s="5">
+      <c r="S281" s="7">
         <v>40664</v>
       </c>
       <c r="T281" s="4" t="s">
@@ -58762,13 +58764,13 @@
       <c r="P282" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q282" s="5">
+      <c r="Q282" s="7">
         <v>23036</v>
       </c>
       <c r="R282" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S282" s="5">
+      <c r="S282" s="7">
         <v>40664</v>
       </c>
       <c r="T282" s="4" t="s">
@@ -58960,13 +58962,13 @@
       <c r="P283" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q283" s="5">
+      <c r="Q283" s="7">
         <v>27765</v>
       </c>
       <c r="R283" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S283" s="5">
+      <c r="S283" s="7">
         <v>40664</v>
       </c>
       <c r="T283" s="4" t="s">
@@ -59165,13 +59167,13 @@
       <c r="P284" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q284" s="5">
+      <c r="Q284" s="7">
         <v>25780</v>
       </c>
       <c r="R284" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S284" s="5">
+      <c r="S284" s="7">
         <v>40664</v>
       </c>
       <c r="T284" s="4" t="s">
@@ -59363,13 +59365,13 @@
       <c r="P285" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q285" s="5">
+      <c r="Q285" s="7">
         <v>29429</v>
       </c>
       <c r="R285" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S285" s="5">
+      <c r="S285" s="7">
         <v>41051</v>
       </c>
       <c r="T285" s="4" t="s">
@@ -59561,13 +59563,13 @@
       <c r="P286" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q286" s="5">
+      <c r="Q286" s="7">
         <v>25452</v>
       </c>
       <c r="R286" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S286" s="5">
+      <c r="S286" s="7">
         <v>41051</v>
       </c>
       <c r="T286" s="4" t="s">
@@ -59759,13 +59761,13 @@
       <c r="P287" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q287" s="5">
+      <c r="Q287" s="7">
         <v>23723</v>
       </c>
       <c r="R287" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S287" s="5">
+      <c r="S287" s="7">
         <v>41051</v>
       </c>
       <c r="T287" s="4" t="s">
@@ -59957,13 +59959,13 @@
       <c r="P288" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q288" s="5">
+      <c r="Q288" s="7">
         <v>24053</v>
       </c>
       <c r="R288" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S288" s="5">
+      <c r="S288" s="7">
         <v>41051</v>
       </c>
       <c r="T288" s="4" t="s">
@@ -60155,13 +60157,13 @@
       <c r="P289" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q289" s="5">
+      <c r="Q289" s="7">
         <v>23670</v>
       </c>
       <c r="R289" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S289" s="5">
+      <c r="S289" s="7">
         <v>41051</v>
       </c>
       <c r="T289" s="4" t="s">
@@ -60353,13 +60355,13 @@
       <c r="P290" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q290" s="5">
+      <c r="Q290" s="7">
         <v>26890</v>
       </c>
       <c r="R290" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S290" s="5">
+      <c r="S290" s="7">
         <v>41051</v>
       </c>
       <c r="T290" s="4" t="s">
@@ -60551,13 +60553,13 @@
       <c r="P291" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q291" s="5">
+      <c r="Q291" s="7">
         <v>26965</v>
       </c>
       <c r="R291" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S291" s="5">
+      <c r="S291" s="7">
         <v>41051</v>
       </c>
       <c r="T291" s="4" t="s">
@@ -60749,13 +60751,13 @@
       <c r="P292" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q292" s="5">
+      <c r="Q292" s="7">
         <v>27419</v>
       </c>
       <c r="R292" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S292" s="5">
+      <c r="S292" s="7">
         <v>41051</v>
       </c>
       <c r="T292" s="4" t="s">
@@ -60952,13 +60954,13 @@
       <c r="P293" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q293" s="5">
+      <c r="Q293" s="7">
         <v>26614</v>
       </c>
       <c r="R293" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S293" s="5">
+      <c r="S293" s="7">
         <v>41244</v>
       </c>
       <c r="T293" s="4" t="s">
@@ -61148,13 +61150,13 @@
       <c r="P294" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q294" s="5">
+      <c r="Q294" s="7">
         <v>23192</v>
       </c>
       <c r="R294" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S294" s="5">
+      <c r="S294" s="7">
         <v>41470</v>
       </c>
       <c r="T294" s="4" t="s">
@@ -61346,13 +61348,13 @@
       <c r="P295" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q295" s="5">
+      <c r="Q295" s="7">
         <v>22575</v>
       </c>
       <c r="R295" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S295" s="5">
+      <c r="S295" s="7">
         <v>41470</v>
       </c>
       <c r="T295" s="4" t="s">
@@ -61544,13 +61546,13 @@
       <c r="P296" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q296" s="5">
+      <c r="Q296" s="7">
         <v>25921</v>
       </c>
       <c r="R296" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S296" s="5">
+      <c r="S296" s="7">
         <v>41470</v>
       </c>
       <c r="T296" s="4" t="s">
@@ -61742,13 +61744,13 @@
       <c r="P297" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q297" s="5">
+      <c r="Q297" s="7">
         <v>27018</v>
       </c>
       <c r="R297" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S297" s="5">
+      <c r="S297" s="7">
         <v>41470</v>
       </c>
       <c r="T297" s="4" t="s">
@@ -61940,13 +61942,13 @@
       <c r="P298" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q298" s="5">
+      <c r="Q298" s="7">
         <v>29037</v>
       </c>
       <c r="R298" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S298" s="5">
+      <c r="S298" s="7">
         <v>41470</v>
       </c>
       <c r="T298" s="4" t="s">
@@ -62138,13 +62140,13 @@
       <c r="P299" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q299" s="5">
+      <c r="Q299" s="7">
         <v>23395</v>
       </c>
       <c r="R299" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S299" s="5">
+      <c r="S299" s="7">
         <v>41470</v>
       </c>
       <c r="T299" s="4" t="s">
@@ -62336,13 +62338,13 @@
       <c r="P300" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q300" s="5">
+      <c r="Q300" s="7">
         <v>28845</v>
       </c>
       <c r="R300" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S300" s="5">
+      <c r="S300" s="7">
         <v>41470</v>
       </c>
       <c r="T300" s="4" t="s">
@@ -62534,13 +62536,13 @@
       <c r="P301" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q301" s="5">
+      <c r="Q301" s="7">
         <v>21425</v>
       </c>
       <c r="R301" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S301" s="5">
+      <c r="S301" s="7">
         <v>41470</v>
       </c>
       <c r="T301" s="4" t="s">
@@ -62732,13 +62734,13 @@
       <c r="P302" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q302" s="5">
+      <c r="Q302" s="7">
         <v>28966</v>
       </c>
       <c r="R302" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S302" s="5">
+      <c r="S302" s="7">
         <v>41470</v>
       </c>
       <c r="T302" s="4" t="s">
@@ -62937,13 +62939,13 @@
       <c r="P303" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q303" s="5">
+      <c r="Q303" s="7">
         <v>25303</v>
       </c>
       <c r="R303" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S303" s="5">
+      <c r="S303" s="7">
         <v>41470</v>
       </c>
       <c r="T303" s="4" t="s">
@@ -63135,13 +63137,13 @@
       <c r="P304" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q304" s="5">
+      <c r="Q304" s="7">
         <v>26907</v>
       </c>
       <c r="R304" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S304" s="5">
+      <c r="S304" s="7">
         <v>41470</v>
       </c>
       <c r="T304" s="4" t="s">
@@ -63340,13 +63342,13 @@
       <c r="P305" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q305" s="5">
+      <c r="Q305" s="7">
         <v>24779</v>
       </c>
       <c r="R305" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S305" s="5">
+      <c r="S305" s="7">
         <v>41470</v>
       </c>
       <c r="T305" s="4" t="s">
@@ -63538,13 +63540,13 @@
       <c r="P306" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q306" s="5">
+      <c r="Q306" s="7">
         <v>27509</v>
       </c>
       <c r="R306" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S306" s="5">
+      <c r="S306" s="7">
         <v>41470</v>
       </c>
       <c r="T306" s="4" t="s">
@@ -63741,13 +63743,13 @@
       <c r="P307" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q307" s="5">
+      <c r="Q307" s="7">
         <v>23843</v>
       </c>
       <c r="R307" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S307" s="5">
+      <c r="S307" s="7">
         <v>41470</v>
       </c>
       <c r="T307" s="4" t="s">
@@ -63944,13 +63946,13 @@
       <c r="P308" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q308" s="5">
+      <c r="Q308" s="7">
         <v>22491</v>
       </c>
       <c r="R308" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S308" s="5">
+      <c r="S308" s="7">
         <v>41470</v>
       </c>
       <c r="T308" s="4" t="s">
@@ -64142,13 +64144,13 @@
       <c r="P309" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q309" s="5">
+      <c r="Q309" s="7">
         <v>27292</v>
       </c>
       <c r="R309" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S309" s="5">
+      <c r="S309" s="7">
         <v>41470</v>
       </c>
       <c r="T309" s="4" t="s">
@@ -64340,13 +64342,13 @@
       <c r="P310" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q310" s="5">
+      <c r="Q310" s="7">
         <v>26756</v>
       </c>
       <c r="R310" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S310" s="5">
+      <c r="S310" s="7">
         <v>41470</v>
       </c>
       <c r="T310" s="4" t="s">
@@ -64543,13 +64545,13 @@
       <c r="P311" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q311" s="5">
+      <c r="Q311" s="7">
         <v>29783</v>
       </c>
       <c r="R311" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S311" s="5">
+      <c r="S311" s="7">
         <v>41470</v>
       </c>
       <c r="T311" s="4" t="s">
@@ -64741,13 +64743,13 @@
       <c r="P312" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q312" s="5">
+      <c r="Q312" s="7">
         <v>24223</v>
       </c>
       <c r="R312" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S312" s="5">
+      <c r="S312" s="7">
         <v>41470</v>
       </c>
       <c r="T312" s="4" t="s">
@@ -64944,13 +64946,13 @@
       <c r="P313" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q313" s="5">
+      <c r="Q313" s="7">
         <v>26960</v>
       </c>
       <c r="R313" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S313" s="5">
+      <c r="S313" s="7">
         <v>41470</v>
       </c>
       <c r="T313" s="4" t="s">
@@ -65149,13 +65151,13 @@
       <c r="P314" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q314" s="5">
+      <c r="Q314" s="7">
         <v>24472</v>
       </c>
       <c r="R314" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S314" s="5">
+      <c r="S314" s="7">
         <v>35049</v>
       </c>
       <c r="T314" s="4" t="s">
@@ -65354,13 +65356,13 @@
       <c r="P315" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q315" s="5">
+      <c r="Q315" s="7">
         <v>24197</v>
       </c>
       <c r="R315" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S315" s="5">
+      <c r="S315" s="7">
         <v>35049</v>
       </c>
       <c r="T315" s="4" t="s">
@@ -65559,13 +65561,13 @@
       <c r="P316" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q316" s="5">
+      <c r="Q316" s="7">
         <v>23589</v>
       </c>
       <c r="R316" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S316" s="5">
+      <c r="S316" s="7">
         <v>35049</v>
       </c>
       <c r="T316" s="4" t="s">
@@ -65764,13 +65766,13 @@
       <c r="P317" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q317" s="5">
+      <c r="Q317" s="7">
         <v>20035</v>
       </c>
       <c r="R317" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S317" s="5">
+      <c r="S317" s="7">
         <v>33573</v>
       </c>
       <c r="T317" s="4" t="s">
@@ -65972,13 +65974,13 @@
       <c r="P318" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q318" s="5">
+      <c r="Q318" s="7">
         <v>20508</v>
       </c>
       <c r="R318" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S318" s="5">
+      <c r="S318" s="7">
         <v>35603</v>
       </c>
       <c r="T318" s="4" t="s">
@@ -66183,13 +66185,13 @@
       <c r="P319" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q319" s="5">
+      <c r="Q319" s="7">
         <v>23640</v>
       </c>
       <c r="R319" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S319" s="5">
+      <c r="S319" s="7">
         <v>34881</v>
       </c>
       <c r="T319" s="4" t="s">
@@ -66395,13 +66397,13 @@
       <c r="P320" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q320" s="5">
+      <c r="Q320" s="7">
         <v>20996</v>
       </c>
       <c r="R320" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S320" s="5">
+      <c r="S320" s="7">
         <v>34869</v>
       </c>
       <c r="T320" s="4" t="s">
@@ -66604,13 +66606,13 @@
       <c r="P321" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q321" s="5">
+      <c r="Q321" s="7">
         <v>20665</v>
       </c>
       <c r="R321" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S321" s="5">
+      <c r="S321" s="7">
         <v>34894</v>
       </c>
       <c r="T321" s="4" t="s">
@@ -66812,13 +66814,13 @@
       <c r="P322" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q322" s="5">
+      <c r="Q322" s="7">
         <v>22517</v>
       </c>
       <c r="R322" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S322" s="5">
+      <c r="S322" s="7">
         <v>33208</v>
       </c>
       <c r="T322" s="4" t="s">
@@ -67024,13 +67026,13 @@
       <c r="P323" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q323" s="5">
+      <c r="Q323" s="7">
         <v>24031</v>
       </c>
       <c r="R323" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S323" s="5">
+      <c r="S323" s="7">
         <v>35019</v>
       </c>
       <c r="T323" s="4" t="s">
@@ -67234,13 +67236,13 @@
       <c r="P324" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q324" s="5">
+      <c r="Q324" s="7">
         <v>28636</v>
       </c>
       <c r="R324" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S324" s="5">
+      <c r="S324" s="7">
         <v>38322</v>
       </c>
       <c r="T324" s="4" t="s">
@@ -67448,13 +67450,13 @@
       <c r="P325" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q325" s="5">
+      <c r="Q325" s="7">
         <v>21808</v>
       </c>
       <c r="R325" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S325" s="5">
+      <c r="S325" s="7">
         <v>33605</v>
       </c>
       <c r="T325" s="4" t="s">
@@ -67658,13 +67660,13 @@
       <c r="P326" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q326" s="5">
+      <c r="Q326" s="7">
         <v>25631</v>
       </c>
       <c r="R326" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S326" s="5">
+      <c r="S326" s="7">
         <v>35064</v>
       </c>
       <c r="T326" s="4" t="s">
@@ -67868,13 +67870,13 @@
       <c r="P327" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q327" s="5">
+      <c r="Q327" s="7">
         <v>17821</v>
       </c>
       <c r="R327" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S327" s="5">
+      <c r="S327" s="7">
         <v>32735</v>
       </c>
       <c r="T327" s="4" t="s">
@@ -68070,13 +68072,13 @@
       <c r="P328" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q328" s="5">
+      <c r="Q328" s="7">
         <v>23708</v>
       </c>
       <c r="R328" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S328" s="5">
+      <c r="S328" s="7">
         <v>36601</v>
       </c>
       <c r="T328" s="4" t="s">
@@ -68281,13 +68283,13 @@
       <c r="P329" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q329" s="5">
+      <c r="Q329" s="7">
         <v>20324</v>
       </c>
       <c r="R329" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S329" s="5">
+      <c r="S329" s="7">
         <v>35090</v>
       </c>
       <c r="T329" s="4" t="s">
@@ -68486,13 +68488,13 @@
       <c r="P330" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q330" s="5">
+      <c r="Q330" s="7">
         <v>21965</v>
       </c>
       <c r="R330" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S330" s="5">
+      <c r="S330" s="7">
         <v>35064</v>
       </c>
       <c r="T330" s="4" t="s">
@@ -68693,13 +68695,13 @@
       <c r="P331" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q331" s="5">
+      <c r="Q331" s="7">
         <v>24576</v>
       </c>
       <c r="R331" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S331" s="5">
+      <c r="S331" s="7">
         <v>35034</v>
       </c>
       <c r="T331" s="4" t="s">
@@ -68907,13 +68909,13 @@
       <c r="P332" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q332" s="5">
+      <c r="Q332" s="7">
         <v>23013</v>
       </c>
       <c r="R332" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S332" s="5">
+      <c r="S332" s="7">
         <v>35360</v>
       </c>
       <c r="T332" s="4" t="s">
@@ -69119,13 +69121,13 @@
       <c r="P333" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q333" s="5">
+      <c r="Q333" s="7">
         <v>22907</v>
       </c>
       <c r="R333" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S333" s="5">
+      <c r="S333" s="7">
         <v>33605</v>
       </c>
       <c r="T333" s="4" t="s">
@@ -69329,13 +69331,13 @@
       <c r="P334" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q334" s="5">
+      <c r="Q334" s="7">
         <v>24527</v>
       </c>
       <c r="R334" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S334" s="5">
+      <c r="S334" s="7">
         <v>34530</v>
       </c>
       <c r="T334" s="4" t="s">
@@ -69538,13 +69540,13 @@
       <c r="P335" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q335" s="5">
+      <c r="Q335" s="7">
         <v>24849</v>
       </c>
       <c r="R335" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S335" s="5">
+      <c r="S335" s="7">
         <v>37229</v>
       </c>
       <c r="T335" s="4" t="s">
@@ -69750,13 +69752,13 @@
       <c r="P336" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q336" s="5">
+      <c r="Q336" s="7">
         <v>22715</v>
       </c>
       <c r="R336" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S336" s="5">
+      <c r="S336" s="7">
         <v>36342</v>
       </c>
       <c r="T336" s="4" t="s">
@@ -69962,13 +69964,13 @@
       <c r="P337" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q337" s="5">
+      <c r="Q337" s="7">
         <v>24512</v>
       </c>
       <c r="R337" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S337" s="5">
+      <c r="S337" s="7">
         <v>35467</v>
       </c>
       <c r="T337" s="4" t="s">
@@ -70172,13 +70174,13 @@
       <c r="P338" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q338" s="5">
+      <c r="Q338" s="7">
         <v>25450</v>
       </c>
       <c r="R338" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S338" s="5">
+      <c r="S338" s="7">
         <v>36800</v>
       </c>
       <c r="T338" s="4" t="s">
@@ -70379,13 +70381,13 @@
       <c r="P339" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q339" s="5">
+      <c r="Q339" s="7">
         <v>24870</v>
       </c>
       <c r="R339" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S339" s="5">
+      <c r="S339" s="7">
         <v>36800</v>
       </c>
       <c r="T339" s="4" t="s">
@@ -70585,13 +70587,13 @@
       <c r="P340" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q340" s="5">
+      <c r="Q340" s="7">
         <v>25264</v>
       </c>
       <c r="R340" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S340" s="5">
+      <c r="S340" s="7">
         <v>38078</v>
       </c>
       <c r="T340" s="4" t="s">
@@ -70790,13 +70792,13 @@
       <c r="P341" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q341" s="5">
+      <c r="Q341" s="7">
         <v>17470</v>
       </c>
       <c r="R341" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S341" s="5">
+      <c r="S341" s="7">
         <v>38078</v>
       </c>
       <c r="T341" s="4" t="s">
@@ -70992,13 +70994,13 @@
       <c r="P342" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q342" s="5">
+      <c r="Q342" s="7">
         <v>25223</v>
       </c>
       <c r="R342" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S342" s="5">
+      <c r="S342" s="7">
         <v>38322</v>
       </c>
       <c r="T342" s="4" t="s">
@@ -71205,13 +71207,13 @@
       <c r="P343" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q343" s="5">
+      <c r="Q343" s="7">
         <v>27241</v>
       </c>
       <c r="R343" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S343" s="5">
+      <c r="S343" s="7">
         <v>38322</v>
       </c>
       <c r="T343" s="4" t="s">
@@ -71414,13 +71416,13 @@
       <c r="P344" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q344" s="5">
+      <c r="Q344" s="7">
         <v>22935</v>
       </c>
       <c r="R344" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S344" s="5">
+      <c r="S344" s="7">
         <v>39295</v>
       </c>
       <c r="T344" s="4" t="s">
@@ -71624,13 +71626,13 @@
       <c r="P345" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q345" s="5">
+      <c r="Q345" s="7">
         <v>19725</v>
       </c>
       <c r="R345" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S345" s="5">
+      <c r="S345" s="7">
         <v>38322</v>
       </c>
       <c r="T345" s="4" t="s">
@@ -71828,13 +71830,13 @@
       <c r="P346" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q346" s="5">
+      <c r="Q346" s="7">
         <v>23763</v>
       </c>
       <c r="R346" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S346" s="5">
+      <c r="S346" s="7">
         <v>38322</v>
       </c>
       <c r="T346" s="4" t="s">
@@ -72037,13 +72039,13 @@
       <c r="P347" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q347" s="5">
+      <c r="Q347" s="7">
         <v>24863</v>
       </c>
       <c r="R347" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S347" s="5">
+      <c r="S347" s="7">
         <v>38322</v>
       </c>
       <c r="T347" s="4" t="s">
@@ -72248,13 +72250,13 @@
       <c r="P348" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q348" s="5">
+      <c r="Q348" s="7">
         <v>26864</v>
       </c>
       <c r="R348" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S348" s="5">
+      <c r="S348" s="7">
         <v>36895</v>
       </c>
       <c r="T348" s="4" t="s">
@@ -72456,13 +72458,13 @@
       <c r="P349" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q349" s="5">
+      <c r="Q349" s="7">
         <v>26157</v>
       </c>
       <c r="R349" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S349" s="5">
+      <c r="S349" s="7">
         <v>36924</v>
       </c>
       <c r="T349" s="4" t="s">
@@ -72668,13 +72670,13 @@
       <c r="P350" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q350" s="5">
+      <c r="Q350" s="7">
         <v>22561</v>
       </c>
       <c r="R350" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S350" s="5">
+      <c r="S350" s="7">
         <v>39479</v>
       </c>
       <c r="T350" s="4" t="s">
@@ -72868,13 +72870,13 @@
       <c r="P351" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q351" s="5">
+      <c r="Q351" s="7">
         <v>24184</v>
       </c>
       <c r="R351" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S351" s="5">
+      <c r="S351" s="7">
         <v>39479</v>
       </c>
       <c r="T351" s="4" t="s">
@@ -73068,13 +73070,13 @@
       <c r="P352" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q352" s="5">
+      <c r="Q352" s="7">
         <v>20970</v>
       </c>
       <c r="R352" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S352" s="5">
+      <c r="S352" s="7">
         <v>39479</v>
       </c>
       <c r="T352" s="4" t="s">
@@ -73268,13 +73270,13 @@
       <c r="P353" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q353" s="5">
+      <c r="Q353" s="7">
         <v>22447</v>
       </c>
       <c r="R353" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S353" s="5">
+      <c r="S353" s="7">
         <v>39479</v>
       </c>
       <c r="T353" s="4" t="s">
@@ -73468,13 +73470,13 @@
       <c r="P354" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q354" s="5">
+      <c r="Q354" s="7">
         <v>25444</v>
       </c>
       <c r="R354" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S354" s="5">
+      <c r="S354" s="7">
         <v>39479</v>
       </c>
       <c r="T354" s="4" t="s">
@@ -73668,13 +73670,13 @@
       <c r="P355" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q355" s="5">
+      <c r="Q355" s="7">
         <v>22227</v>
       </c>
       <c r="R355" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S355" s="5">
+      <c r="S355" s="7">
         <v>39479</v>
       </c>
       <c r="T355" s="4" t="s">
@@ -73873,13 +73875,13 @@
       <c r="P356" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q356" s="5">
+      <c r="Q356" s="7">
         <v>25466</v>
       </c>
       <c r="R356" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S356" s="5">
+      <c r="S356" s="7">
         <v>39479</v>
       </c>
       <c r="T356" s="4" t="s">
@@ -74073,13 +74075,13 @@
       <c r="P357" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q357" s="5">
+      <c r="Q357" s="7">
         <v>24278</v>
       </c>
       <c r="R357" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S357" s="5">
+      <c r="S357" s="7">
         <v>40363</v>
       </c>
       <c r="T357" s="4" t="s">
@@ -74269,13 +74271,13 @@
       <c r="P358" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q358" s="5">
+      <c r="Q358" s="7">
         <v>26695</v>
       </c>
       <c r="R358" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S358" s="5">
+      <c r="S358" s="7">
         <v>40363</v>
       </c>
       <c r="T358" s="4" t="s">
@@ -74472,13 +74474,13 @@
       <c r="P359" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q359" s="5">
+      <c r="Q359" s="7">
         <v>27929</v>
       </c>
       <c r="R359" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S359" s="5">
+      <c r="S359" s="7">
         <v>40363</v>
       </c>
       <c r="T359" s="4" t="s">
@@ -74675,13 +74677,13 @@
       <c r="P360" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q360" s="5">
+      <c r="Q360" s="7">
         <v>24822</v>
       </c>
       <c r="R360" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S360" s="5">
+      <c r="S360" s="7">
         <v>40664</v>
       </c>
       <c r="T360" s="4" t="s">
@@ -74878,13 +74880,13 @@
       <c r="P361" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q361" s="5">
+      <c r="Q361" s="7">
         <v>27433</v>
       </c>
       <c r="R361" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S361" s="5">
+      <c r="S361" s="7">
         <v>40664</v>
       </c>
       <c r="T361" s="4" t="s">
@@ -75083,13 +75085,13 @@
       <c r="P362" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q362" s="5">
+      <c r="Q362" s="7">
         <v>25337</v>
       </c>
       <c r="R362" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S362" s="5">
+      <c r="S362" s="7">
         <v>40664</v>
       </c>
       <c r="T362" s="4" t="s">
@@ -75286,13 +75288,13 @@
       <c r="P363" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q363" s="5">
+      <c r="Q363" s="7">
         <v>24733</v>
       </c>
       <c r="R363" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S363" s="5">
+      <c r="S363" s="7">
         <v>41051</v>
       </c>
       <c r="T363" s="4" t="s">
@@ -75487,13 +75489,13 @@
       <c r="P364" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q364" s="5">
+      <c r="Q364" s="7">
         <v>27572</v>
       </c>
       <c r="R364" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S364" s="5">
+      <c r="S364" s="7">
         <v>41051</v>
       </c>
       <c r="T364" s="4" t="s">
@@ -75695,13 +75697,13 @@
       <c r="P365" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q365" s="5">
+      <c r="Q365" s="7">
         <v>26374</v>
       </c>
       <c r="R365" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S365" s="5">
+      <c r="S365" s="7">
         <v>41263</v>
       </c>
       <c r="T365" s="4" t="s">
@@ -75898,13 +75900,13 @@
       <c r="P366" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q366" s="5">
+      <c r="Q366" s="7">
         <v>22979</v>
       </c>
       <c r="R366" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S366" s="5">
+      <c r="S366" s="7">
         <v>41051</v>
       </c>
       <c r="T366" s="4" t="s">
@@ -76104,13 +76106,13 @@
       <c r="P367" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q367" s="5">
+      <c r="Q367" s="7">
         <v>25186</v>
       </c>
       <c r="R367" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S367" s="5">
+      <c r="S367" s="7">
         <v>38322</v>
       </c>
       <c r="T367" s="4" t="s">
@@ -76314,13 +76316,13 @@
       <c r="P368" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q368" s="5">
+      <c r="Q368" s="7">
         <v>25983</v>
       </c>
       <c r="R368" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S368" s="5">
+      <c r="S368" s="7">
         <v>41470</v>
       </c>
       <c r="T368" s="4" t="s">
@@ -76512,13 +76514,13 @@
       <c r="P369" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q369" s="5">
+      <c r="Q369" s="7">
         <v>25726</v>
       </c>
       <c r="R369" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S369" s="5">
+      <c r="S369" s="7">
         <v>41470</v>
       </c>
       <c r="T369" s="4" t="s">
@@ -76712,13 +76714,13 @@
       <c r="P370" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q370" s="5">
+      <c r="Q370" s="7">
         <v>25656</v>
       </c>
       <c r="R370" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S370" s="5">
+      <c r="S370" s="7">
         <v>41470</v>
       </c>
       <c r="T370" s="4" t="s">
@@ -76915,13 +76917,13 @@
       <c r="P371" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q371" s="5">
+      <c r="Q371" s="7">
         <v>26839</v>
       </c>
       <c r="R371" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S371" s="5">
+      <c r="S371" s="7">
         <v>41470</v>
       </c>
       <c r="T371" s="4" t="s">
@@ -77113,13 +77115,13 @@
       <c r="P372" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q372" s="5">
+      <c r="Q372" s="7">
         <v>26397</v>
       </c>
       <c r="R372" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S372" s="5">
+      <c r="S372" s="7">
         <v>41470</v>
       </c>
       <c r="T372" s="4" t="s">
@@ -77313,13 +77315,13 @@
       <c r="P373" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q373" s="5">
+      <c r="Q373" s="7">
         <v>25865</v>
       </c>
       <c r="R373" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S373" s="5">
+      <c r="S373" s="7">
         <v>39605</v>
       </c>
       <c r="T373" s="4" t="s">
@@ -77528,13 +77530,13 @@
       <c r="P374" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q374" s="5">
+      <c r="Q374" s="7">
         <v>24813</v>
       </c>
       <c r="R374" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S374" s="5">
+      <c r="S374" s="7">
         <v>39833</v>
       </c>
       <c r="T374" s="4" t="s">
@@ -77734,13 +77736,13 @@
       <c r="P375" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q375" s="5">
+      <c r="Q375" s="7">
         <v>25721</v>
       </c>
       <c r="R375" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S375" s="5">
+      <c r="S375" s="7">
         <v>39980</v>
       </c>
       <c r="T375" s="4" t="s">
@@ -77945,13 +77947,13 @@
       <c r="P376" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q376" s="5">
+      <c r="Q376" s="7">
         <v>24006</v>
       </c>
       <c r="R376" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S376" s="5">
+      <c r="S376" s="7">
         <v>37426</v>
       </c>
       <c r="T376" s="4" t="s">
@@ -78144,13 +78146,13 @@
       <c r="P377" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q377" s="5">
+      <c r="Q377" s="7">
         <v>26349</v>
       </c>
       <c r="R377" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S377" s="5">
+      <c r="S377" s="7">
         <v>38687</v>
       </c>
       <c r="T377" s="4" t="s">
@@ -78343,13 +78345,13 @@
       <c r="P378" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q378" s="5">
+      <c r="Q378" s="7">
         <v>26193</v>
       </c>
       <c r="R378" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S378" s="5">
+      <c r="S378" s="7">
         <v>35936</v>
       </c>
       <c r="T378" s="4" t="s">
@@ -78542,13 +78544,13 @@
       <c r="P379" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q379" s="5">
+      <c r="Q379" s="7">
         <v>24848</v>
       </c>
       <c r="R379" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S379" s="5">
+      <c r="S379" s="7">
         <v>40695</v>
       </c>
       <c r="T379" s="4" t="s">
@@ -78743,13 +78745,13 @@
       <c r="P380" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q380" s="5">
+      <c r="Q380" s="7">
         <v>27702</v>
       </c>
       <c r="R380" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S380" s="5">
+      <c r="S380" s="7">
         <v>37987</v>
       </c>
       <c r="T380" s="4" t="s">
@@ -78942,13 +78944,13 @@
       <c r="P381" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q381" s="5">
+      <c r="Q381" s="7">
         <v>23289</v>
       </c>
       <c r="R381" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S381" s="5">
+      <c r="S381" s="7">
         <v>37895</v>
       </c>
       <c r="T381" s="4" t="s">
@@ -79143,13 +79145,13 @@
       <c r="P382" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q382" s="5">
+      <c r="Q382" s="7">
         <v>23719</v>
       </c>
       <c r="R382" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S382" s="5">
+      <c r="S382" s="7">
         <v>39479</v>
       </c>
       <c r="T382" s="4" t="s">
@@ -79347,13 +79349,13 @@
       <c r="P383" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q383" s="5">
+      <c r="Q383" s="7">
         <v>22761</v>
       </c>
       <c r="R383" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S383" s="5">
+      <c r="S383" s="7">
         <v>41122</v>
       </c>
       <c r="T383" s="4" t="s">
@@ -79546,13 +79548,13 @@
       <c r="P384" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q384" s="5">
+      <c r="Q384" s="7">
         <v>22262</v>
       </c>
       <c r="R384" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S384" s="5">
+      <c r="S384" s="7">
         <v>38108</v>
       </c>
       <c r="T384" s="4" t="s">
@@ -79747,13 +79749,13 @@
       <c r="P385" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q385" s="5">
+      <c r="Q385" s="7">
         <v>27354</v>
       </c>
       <c r="R385" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S385" s="5">
+      <c r="S385" s="7">
         <v>41788</v>
       </c>
       <c r="T385" s="4" t="s">
@@ -79945,13 +79947,13 @@
       <c r="P386" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q386" s="5">
+      <c r="Q386" s="7">
         <v>28808</v>
       </c>
       <c r="R386" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S386" s="5">
+      <c r="S386" s="7">
         <v>41792</v>
       </c>
       <c r="T386" s="4" t="s">
@@ -80141,13 +80143,13 @@
       <c r="P387" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q387" s="5">
+      <c r="Q387" s="7">
         <v>24072</v>
       </c>
       <c r="R387" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S387" s="5">
+      <c r="S387" s="7">
         <v>41800</v>
       </c>
       <c r="T387" s="4" t="s">
@@ -80340,13 +80342,13 @@
       <c r="P388" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q388" s="5">
+      <c r="Q388" s="7">
         <v>28502</v>
       </c>
       <c r="R388" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S388" s="5">
+      <c r="S388" s="7">
         <v>41791</v>
       </c>
       <c r="T388" s="4" t="s">
@@ -80536,13 +80538,13 @@
       <c r="P389" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q389" s="5">
+      <c r="Q389" s="7">
         <v>23239</v>
       </c>
       <c r="R389" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S389" s="5">
+      <c r="S389" s="7">
         <v>41821</v>
       </c>
       <c r="T389" s="4" t="s">
@@ -80732,13 +80734,13 @@
       <c r="P390" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q390" s="5">
+      <c r="Q390" s="7">
         <v>16546</v>
       </c>
       <c r="R390" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S390" s="5">
+      <c r="S390" s="7">
         <v>41809</v>
       </c>
       <c r="T390" s="4" t="s">
@@ -80930,13 +80932,13 @@
       <c r="P391" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q391" s="5">
+      <c r="Q391" s="7">
         <v>12691</v>
       </c>
       <c r="R391" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S391" s="5">
+      <c r="S391" s="7">
         <v>41809</v>
       </c>
       <c r="T391" s="4" t="s">
@@ -81128,13 +81130,13 @@
       <c r="P392" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q392" s="5">
+      <c r="Q392" s="7">
         <v>30589</v>
       </c>
       <c r="R392" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S392" s="5">
+      <c r="S392" s="7">
         <v>41593</v>
       </c>
       <c r="T392" s="4" t="s">
@@ -81331,13 +81333,13 @@
       <c r="P393" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q393" s="5">
+      <c r="Q393" s="7">
         <v>23611</v>
       </c>
       <c r="R393" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S393" s="5">
+      <c r="S393" s="7">
         <v>41858</v>
       </c>
       <c r="T393" s="4" t="s">
@@ -81479,6 +81481,7 @@
       <c r="CF393" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF1" xr:uid="{112649A3-7EB7-4B30-BA78-ADE58CE20ED0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>